--- a/metadata/Supplementary_Table_1.xlsx
+++ b/metadata/Supplementary_Table_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hschrieke/Desktop/stage_2020/Review/After_Review_03_12_21/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliereveillaud/Dropbox/Etudiants/2020/Hans/THESE/Draft_Metabarcoding/Draft_22.9.2021_Submitted/Reviews/Sent_To_Co-Authors_7.12.21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED96B94E-A085-0547-9D62-149291FBFBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D294F87-1CC7-3843-891B-30B9E1D9E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="6620" windowWidth="23120" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1240" windowWidth="23120" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata (136 x 14)" sheetId="4" r:id="rId1"/>
@@ -1631,7 +1631,7 @@
     <t>Pool 3-2: 1ng/ul</t>
   </si>
   <si>
-    <t>Diluted samples (1000)</t>
+    <t>Diluted samples (1/1000)</t>
   </si>
 </sst>
 </file>
@@ -1641,8 +1641,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1670,9 +1678,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1972,68 +1981,69 @@
   <dimension ref="A1:R137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>531</v>
       </c>
     </row>
